--- a/public/files/students.xlsx
+++ b/public/files/students.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,10 @@
   </si>
   <si>
     <t>1988-2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -453,7 +457,7 @@
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,8 +494,11 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -529,7 +536,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C3" s="1"/>
     </row>
   </sheetData>

--- a/public/files/students.xlsx
+++ b/public/files/students.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,19 +80,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>父子:张三:男:18680812345,母子:李四:18680854321,爷孙:王五:18680856789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1988-2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>一年级一班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父子:张三:男:18680812345,母子:李四:18680854321,爷孙:王五:18680856789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1988-2-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,19 +441,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="15.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="70.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,11 +491,8 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -506,7 +500,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -515,7 +509,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>13526252635</v>
@@ -533,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C3" s="1"/>
     </row>
   </sheetData>

--- a/public/files/students.xlsx
+++ b/public/files/students.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>男</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,15 +76,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>父子:张三:男:18680812345,母子:李四:18680854321,爷孙:王五:18680856789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1988-2-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一年级一班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父子:张三:男:18680812346,母子:李四:女:18680854321,爷孙:王五:男:18680856789</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +452,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -494,40 +502,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G2">
-        <v>13526252635</v>
+        <v>13911111112</v>
       </c>
       <c r="H2">
-        <v>542626</v>
+        <v>542627</v>
       </c>
       <c r="I2">
         <v>21626526</v>
       </c>
       <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">

--- a/public/files/students.xlsx
+++ b/public/files/students.xlsx
@@ -140,11 +140,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -449,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -507,7 +506,7 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
@@ -537,9 +536,6 @@
       <c r="L2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/public/files/students.xlsx
+++ b/public/files/students.xlsx
@@ -14,96 +14,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>1988-01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
   </si>
   <si>
     <t>学校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>班级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>学号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>住校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>监护关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三002</t>
   </si>
   <si>
     <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成都外国语学校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小学一年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1988-2-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一年级一班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13911111112</t>
+  </si>
+  <si>
+    <t>542627</t>
+  </si>
+  <si>
+    <t>21626526</t>
   </si>
   <si>
     <t>住读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我是备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>父子:张三:男:18680812346,母子:李四:女:18680854321,爷孙:王五:男:18680856789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,11 +129,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -163,7 +152,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -449,97 +438,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="15.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="70.625" customWidth="1"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2">
-        <v>13911111112</v>
-      </c>
-      <c r="H2">
-        <v>542627</v>
-      </c>
-      <c r="I2">
-        <v>21626526</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C3" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/public/files/students.xlsx
+++ b/public/files/students.xlsx
@@ -93,17 +93,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -136,7 +136,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -441,15 +441,18 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="15.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -457,10 +460,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -487,7 +490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -495,10 +498,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>

--- a/public/files/students.xlsx
+++ b/public/files/students.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EA5695-FFB3-4688-B11B-A09D3A2ACE27}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="40920" yWindow="10950" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>1988-01-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,9 +39,6 @@
     <t>班级</t>
   </si>
   <si>
-    <t>手机号码</t>
-  </si>
-  <si>
     <t>学号</t>
   </si>
   <si>
@@ -69,9 +67,6 @@
   </si>
   <si>
     <t>一年级一班</t>
-  </si>
-  <si>
-    <t>13911111112</t>
   </si>
   <si>
     <t>542627</t>
@@ -92,18 +87,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -136,7 +131,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -152,7 +147,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -227,6 +222,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -262,6 +274,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -437,22 +466,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="15.19921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="15.23046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3828125" style="1" customWidth="1"/>
+    <col min="5" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="86.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -486,46 +517,40 @@
       <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/students.xlsx
+++ b/public/files/students.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EA5695-FFB3-4688-B11B-A09D3A2ACE27}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD46DA75-E199-487C-9104-293770AA9777}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40920" yWindow="10950" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>1988-01-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,9 +42,6 @@
     <t>学号</t>
   </si>
   <si>
-    <t>卡号</t>
-  </si>
-  <si>
     <t>住校</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
   </si>
   <si>
     <t>542627</t>
-  </si>
-  <si>
-    <t>21626526</t>
   </si>
   <si>
     <t>住读</t>
@@ -467,23 +461,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="15.23046875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3828125" style="1" customWidth="1"/>
-    <col min="5" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="86.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.23046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.4609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="86.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -514,43 +512,37 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/students.xlsx
+++ b/public/files/students.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD46DA75-E199-487C-9104-293770AA9777}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CFCA00-6FE8-42FE-BD4B-DB8637E6C84D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="10950" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="14623" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>1988-01-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,9 +30,6 @@
     <t>生日</t>
   </si>
   <si>
-    <t>学校</t>
-  </si>
-  <si>
     <t>年级</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
   </si>
   <si>
     <t>男</t>
-  </si>
-  <si>
-    <t>成都外国语学校</t>
   </si>
   <si>
     <t>小学一年级</t>
@@ -461,27 +455,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.84375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="86.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="12.4609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="86.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -489,10 +482,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -509,40 +502,34 @@
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/students.xlsx
+++ b/public/files/students.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CFCA00-6FE8-42FE-BD4B-DB8637E6C84D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93B45EC-D129-40BF-ACC1-37898D0F25D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="14623" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4483" yWindow="6094" windowWidth="17588" windowHeight="10526" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>1988-01-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +70,14 @@
   </si>
   <si>
     <t>父子:张三:男:18680812346,母子:李四:女:18680854321,爷孙:王五:男:18680856789</t>
+  </si>
+  <si>
+    <t>学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都外国语学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -455,26 +463,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.84375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="86.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="5.61328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.4609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="86.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -482,28 +491,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -511,24 +523,27 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
     </row>

--- a/public/files/students.xlsx
+++ b/public/files/students.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93B45EC-D129-40BF-ACC1-37898D0F25D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DA10E9-59CA-408D-AF02-CB8EFC9181FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4483" yWindow="6094" windowWidth="17588" windowHeight="10526" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4483" yWindow="3891" windowWidth="17588" windowHeight="10526" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>1988-01-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,14 +70,6 @@
   </si>
   <si>
     <t>父子:张三:男:18680812346,母子:李四:女:18680854321,爷孙:王五:男:18680856789</t>
-  </si>
-  <si>
-    <t>学校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成都外国语学校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -463,27 +455,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.84375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.61328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="86.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="12.4609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="86.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -491,31 +482,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -523,27 +511,24 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
